--- a/your-project/data/KeyWords/KeyWordAvailabilityScheme.xlsx
+++ b/your-project/data/KeyWords/KeyWordAvailabilityScheme.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppaau\Desktop\Academic\IronHack\Projects\Project-Week-5-Your-Own-Project\your-project\data\KeyWords\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF0CC7A-36EA-4A93-85EF-F75238601520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D69675-824A-492D-864A-C100ABEC0DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E82146CA-9A59-45C9-93BF-0C8BC79EF8EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E82146CA-9A59-45C9-93BF-0C8BC79EF8EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="BalearicIslands" sheetId="1" r:id="rId1"/>
+    <sheet name="Madrid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="66">
   <si>
     <t>Castell de Bellver</t>
   </si>
@@ -135,6 +136,102 @@
   </si>
   <si>
     <t>Magaluf</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>belgium</t>
+  </si>
+  <si>
+    <t>spain</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>austria</t>
+  </si>
+  <si>
+    <t>denmark</t>
+  </si>
+  <si>
+    <t>finland</t>
+  </si>
+  <si>
+    <t>ireland</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>netherlands</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t>unitedkingdom</t>
+  </si>
+  <si>
+    <t>prado</t>
+  </si>
+  <si>
+    <t>plaza mayor</t>
+  </si>
+  <si>
+    <t>el retiro</t>
+  </si>
+  <si>
+    <t>puerta del sol</t>
+  </si>
+  <si>
+    <t>gran via</t>
+  </si>
+  <si>
+    <t>museo thyssen</t>
+  </si>
+  <si>
+    <t>templo de debod</t>
+  </si>
+  <si>
+    <t>almudena</t>
+  </si>
+  <si>
+    <t>cibeles</t>
+  </si>
+  <si>
+    <t>palacio de cristal</t>
+  </si>
+  <si>
+    <t>puerta de alcala</t>
+  </si>
+  <si>
+    <t>el rastro</t>
+  </si>
+  <si>
+    <t>las ventas</t>
+  </si>
+  <si>
+    <t>chueca</t>
+  </si>
+  <si>
+    <t>san gines</t>
+  </si>
+  <si>
+    <t>callao</t>
+  </si>
+  <si>
+    <t>calle serrano</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>greece</t>
   </si>
 </sst>
 </file>
@@ -495,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19410A7-EDA9-47D6-BAFB-E185DED2C25E}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1319,4 +1416,879 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B522EB2-B5F9-4402-8176-7FE15F210B80}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>